--- a/受控文档/05-需求分析/需求优先级/PRD2018-G11-教师需求优先级打分.xlsx
+++ b/受控文档/05-需求分析/需求优先级/PRD2018-G11-教师需求优先级打分.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="960" windowWidth="18396" windowHeight="13176" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="8340" yWindow="960" windowWidth="18396" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文档标识" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="256">
   <si>
     <t>用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,9 +795,6 @@
     <t>单项功能点价值计算方法为：价值 = 相对收益*相对收益权值 + 相对损失*相对损失权值
 单项功能点价值%计算方法为：价值% = 单项功能点价值 / 所有功能点价值和 * 100%
 单项功能点优先级计算方法为：（价值%）/（成本% + 风险%）</t>
-  </si>
-  <si>
-    <t>本文档最终解释权归项目组所有</t>
   </si>
   <si>
     <t>本文档用于教师用户代表对于本系统学生用户功能点打分</t>
@@ -909,6 +906,54 @@
   </si>
   <si>
     <t>教师可以下载答疑室的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师在回帖区点赞评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师在回帖区举报评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师在回帖区发表对文章的回帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师在回帖区按照排序方法排序回帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师在回帖区对回帖进行回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复回帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序回帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表回帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报回帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞回帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看回帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户优先级权重：客户1.5   教师1  学生1  管理员1  游客0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,6 +1336,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1321,24 +1375,90 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,81 +1476,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1877,295 +1922,301 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="3" spans="2:9">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="28" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="28" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30">
+      <c r="E28" s="19"/>
+      <c r="F28" s="20">
         <v>43471</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:I19"/>
+    <mergeCell ref="B20:I22"/>
+    <mergeCell ref="B23:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:I28"/>
@@ -2175,12 +2226,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:I27"/>
-    <mergeCell ref="B3:I19"/>
-    <mergeCell ref="B20:I22"/>
-    <mergeCell ref="B23:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2192,725 +2237,685 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:R8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="2" spans="2:18" ht="22.8">
-      <c r="B2" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
+      <c r="B2" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="40">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="31">
         <v>1</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
+      <c r="E4" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="51"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="46"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="54"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="49" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="49" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="56"/>
+      <c r="G10" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51" t="s">
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="51" t="s">
+      <c r="M10" s="56"/>
+      <c r="N10" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="49">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="55">
         <v>1</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51">
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57">
         <v>1</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51" t="s">
+      <c r="M11" s="56"/>
+      <c r="N11" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="50"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="49">
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="55">
         <v>2</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51">
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57">
         <v>2</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="51" t="s">
+      <c r="M12" s="56"/>
+      <c r="N12" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="50"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="49">
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="55">
         <v>3</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51">
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57">
         <v>3</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="51" t="s">
+      <c r="M13" s="56"/>
+      <c r="N13" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="50"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="49">
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="55">
         <v>4</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="56"/>
+      <c r="G14" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51">
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57">
         <v>4</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51" t="s">
+      <c r="M14" s="56"/>
+      <c r="N14" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="50"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="49">
-        <v>5</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51" t="s">
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="55">
+        <v>5</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51">
-        <v>5</v>
-      </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="51" t="s">
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57">
+        <v>5</v>
+      </c>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="50"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="49">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="55">
         <v>6</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="56"/>
+      <c r="G16" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51">
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57">
         <v>6</v>
       </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51" t="s">
+      <c r="M16" s="56"/>
+      <c r="N16" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="50"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="49">
-        <v>7</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="55">
+        <v>7</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51">
-        <v>7</v>
-      </c>
-      <c r="M17" s="50"/>
-      <c r="N17" s="51" t="s">
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57">
+        <v>7</v>
+      </c>
+      <c r="M17" s="56"/>
+      <c r="N17" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="50"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="49">
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="55">
         <v>8</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="56"/>
+      <c r="G18" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51">
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57">
         <v>8</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51" t="s">
+      <c r="M18" s="56"/>
+      <c r="N18" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="50"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="49">
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="55">
         <v>9</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51" t="s">
+      <c r="F19" s="56"/>
+      <c r="G19" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51">
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57">
         <v>9</v>
       </c>
-      <c r="M19" s="50"/>
-      <c r="N19" s="51" t="s">
+      <c r="M19" s="56"/>
+      <c r="N19" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="50"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="40">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="31">
         <v>2</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="48"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="46"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="51"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="48"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="54"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="40">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="31">
         <v>3</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="54"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="36"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="20.399999999999999">
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="12">
         <v>4</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="33"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="45"/>
     </row>
     <row r="26" spans="2:18" ht="20.399999999999999">
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="12">
         <v>5</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="33"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="40">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="31">
         <v>6</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="57"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="39"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="20.399999999999999">
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="12">
         <v>7</v>
       </c>
-      <c r="E30" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="33"/>
+      <c r="E30" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:R29"/>
-    <mergeCell ref="E30:R30"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:R22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:R24"/>
-    <mergeCell ref="E25:R25"/>
-    <mergeCell ref="E26:R26"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:R13"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:C30"/>
     <mergeCell ref="E3:R3"/>
@@ -2927,6 +2932,46 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:R29"/>
+    <mergeCell ref="E30:R30"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:R22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:R24"/>
+    <mergeCell ref="E25:R25"/>
+    <mergeCell ref="E26:R26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -2953,7 +2998,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="37.950000000000003" customHeight="1">
       <c r="A1" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -4009,7 +4054,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>127</v>
@@ -4026,10 +4071,10 @@
         <v>59</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D67" s="16">
         <v>7</v>
@@ -4043,10 +4088,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="D68" s="16">
         <v>8</v>
@@ -4060,10 +4105,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="D69" s="16">
         <v>5</v>
@@ -4077,10 +4122,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="D70" s="16">
         <v>5</v>
@@ -4094,10 +4139,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="D71" s="16">
         <v>5</v>
@@ -4307,7 +4352,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>164</v>
@@ -4344,7 +4389,7 @@
         <v>153</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="14">
         <v>7</v>
@@ -4358,10 +4403,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="16">
         <v>7</v>
@@ -4373,10 +4418,10 @@
     <row r="88" spans="1:5" ht="16.2" thickBot="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="D88" s="16">
         <v>8</v>
@@ -4390,7 +4435,7 @@
         <v>79</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>154</v>
@@ -4407,7 +4452,7 @@
         <v>80</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>167</v>
@@ -4642,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84:E86"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -4660,7 +4705,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="37.950000000000003" customHeight="1">
       <c r="A1" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -5100,7 +5145,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="5"/>
       <c r="B28" s="65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="66"/>
@@ -5145,10 +5190,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="D31" s="16">
         <v>5</v>
@@ -5773,200 +5818,200 @@
     </row>
     <row r="70" spans="1:5" ht="16.2" thickBot="1">
       <c r="A70" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="16">
-        <v>5</v>
-      </c>
-      <c r="E70" s="17">
-        <v>5</v>
+        <v>164</v>
+      </c>
+      <c r="D70" s="14">
+        <v>7</v>
+      </c>
+      <c r="E70" s="15">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.2" thickBot="1">
       <c r="A71" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="14">
-        <v>7</v>
-      </c>
-      <c r="E71" s="15">
-        <v>7</v>
+        <v>166</v>
+      </c>
+      <c r="D71" s="16">
+        <v>7</v>
+      </c>
+      <c r="E71" s="17">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.2" thickBot="1">
       <c r="A72" s="5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D72" s="16">
         <v>7</v>
       </c>
       <c r="E72" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.2" thickBot="1">
       <c r="A73" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D73" s="16">
         <v>7</v>
       </c>
       <c r="E73" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.2" thickBot="1">
       <c r="A74" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D74" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E74" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.2" thickBot="1">
       <c r="A75" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D75" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E75" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.2" thickBot="1">
       <c r="A76" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D76" s="16">
         <v>5</v>
       </c>
       <c r="E76" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.2" thickBot="1">
       <c r="A77" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D77" s="16">
         <v>5</v>
       </c>
       <c r="E77" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.2" thickBot="1">
       <c r="A78" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D78" s="16">
         <v>5</v>
       </c>
       <c r="E78" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.2" thickBot="1">
       <c r="A79" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D79" s="16">
-        <v>5</v>
-      </c>
-      <c r="E79" s="17">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="D79" s="14">
+        <v>7</v>
+      </c>
+      <c r="E79" s="15">
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.2" thickBot="1">
       <c r="A80" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D80" s="14">
-        <v>7</v>
-      </c>
-      <c r="E80" s="15">
-        <v>7</v>
+        <v>141</v>
+      </c>
+      <c r="D80" s="16">
+        <v>7</v>
+      </c>
+      <c r="E80" s="17">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.2" thickBot="1">
       <c r="A81" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D81" s="16">
         <v>7</v>
@@ -5977,33 +6022,33 @@
     </row>
     <row r="82" spans="1:5" ht="16.2" thickBot="1">
       <c r="A82" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D82" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E82" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.2" thickBot="1">
       <c r="A83" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D83" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E83" s="17">
         <v>7</v>
@@ -6011,52 +6056,35 @@
     </row>
     <row r="84" spans="1:5" ht="16.2" thickBot="1">
       <c r="A84" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D84" s="16">
         <v>7</v>
       </c>
       <c r="E84" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.2" thickBot="1">
       <c r="A85" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D85" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A86" s="5">
-        <v>78</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D86" s="16">
-        <v>8</v>
-      </c>
-      <c r="E86" s="17">
         <v>8</v>
       </c>
     </row>
